--- a/Reference/All_Instructions.xlsx
+++ b/Reference/All_Instructions.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\MC14500B\Homebrew\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UETTL Github\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7529335-BE16-41DF-BCF1-FA8967964BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEA416-6FE4-46F6-A312-64837E677976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB33CA9B-B098-4220-917D-59A95EDECDA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB33CA9B-B098-4220-917D-59A95EDECDA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All Procs" sheetId="1" r:id="rId1"/>
+    <sheet name="650_v1" sheetId="2" r:id="rId2"/>
+    <sheet name="650_v2" sheetId="4" r:id="rId3"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="244">
   <si>
     <t>LD</t>
     <phoneticPr fontId="2"/>
@@ -946,6 +949,736 @@
   </si>
   <si>
     <t>TTL Version</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jump Subroutine. JMP Flag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> ⎍, RA Flag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> ⎍</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Skip next instruction if Dat = 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INCR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parallel load register / RAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Address Instruction Nibble</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UE14500 Instruction Nibble</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QRR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QCA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Carry Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inverse Resuilt Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Accumulator Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Z Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Y Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit X Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit W Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit Memory Address Register A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit Memory Address Register C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit Memory Address Register B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inverse Carry Register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>High value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Low value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X bit 0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y bit 0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z bit 0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X bit 0 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y bit 0 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z bit 0 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q RR plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X bit 0 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y bit 0 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z bit 0 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q RR sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X bit 0 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y bit 0 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z bit 0 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q RR nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X bit 0 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y bit 0 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z bit 0 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q RR xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAR xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into MA bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into MB bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into MC bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into X bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into Y bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into Z bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate MA by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate MB by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate X by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate Y by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate Z by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment MA by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment MB by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment X by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment Y by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment Z by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit X register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Y register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Z register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit MA register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit MB register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit MC register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-bit program counter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Transmit out register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-bit Receive in register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-bit data ready register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Carry register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inverse Result register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LDRA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LDRB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STRA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STRB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STPC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shift bit in</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load from RAM at MR A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load from RAM at MR B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store into RAM at MR A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store RA into PC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LDPC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store into RAM at MR B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load PC into RA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INCR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DECR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate register </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TGO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MMIO to send TX out UART</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TGO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX bit 0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR bit 0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QRR into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 into RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX bit 0 plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR plus RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX bit 0 sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR sub RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX bit 0 nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR nand RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RX bit 0 xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DR xor RR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into TX bit 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RR into TGO (start TX)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rotate MC by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Increment MC by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement MA by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement MB by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement MC by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement X by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement Y by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Decrement Z by 1-bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load RAM at MA into X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load RAM at MA into Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Load RAM at MA into Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store X into RAM at MA </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Y into RAM at MA </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Z into RAM at MA </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store X into RAM at MB </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store Y into RAM at MB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Z into RAM at MB </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store MB into PC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store MC into PC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Store PC into MA</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1018,7 +1751,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1104,13 +1837,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,6 +1923,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,11 +1977,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,8 +2317,8 @@
   </sheetPr>
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1505,36 +2326,36 @@
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
     <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45" customWidth="1"/>
+    <col min="10" max="10" width="50.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="19.5">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:11" ht="19.5">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:11" ht="19.5">
       <c r="B5" s="4" t="s">
@@ -1549,10 +2370,10 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1827,12 +2648,12 @@
       <c r="E16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="19.5">
@@ -1848,10 +2669,10 @@
       <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1957,12 +2778,12 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" ht="19.5">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1978,10 +2799,10 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" ht="19.5">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2022,10 +2843,10 @@
         <v>110</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="19.5">
@@ -2048,10 +2869,10 @@
         <v>111</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5">
@@ -2074,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="19.5">
@@ -2100,10 +2921,10 @@
         <v>1001</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="19.5">
@@ -2125,11 +2946,11 @@
       <c r="H28" s="8">
         <v>1010</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>65</v>
+      <c r="I28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="19.5">
@@ -2181,7 +3002,7 @@
         <v>59</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="19.5">
@@ -2203,11 +3024,11 @@
       <c r="H31" s="8">
         <v>1101</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>51</v>
+      <c r="I31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="19.5">
@@ -2229,8 +3050,12 @@
       <c r="H32" s="8">
         <v>1110</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="2:10" ht="19.5">
       <c r="B33" s="7" t="s">
@@ -2251,8 +3076,12 @@
       <c r="H33" s="11">
         <v>1111</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" spans="2:10" ht="19.5">
       <c r="B34" s="7" t="s">
@@ -2353,4 +3182,1975 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4245587-A9F6-4F7B-9C6E-667D49C732B9}">
+  <dimension ref="C3:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="19.5">
+      <c r="C3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="3:11" ht="19.5">
+      <c r="C4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="19.5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="19.5">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="19.5">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="19.5">
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="19.5">
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="19.5">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>101</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
+        <v>101</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="19.5">
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8">
+        <v>110</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="19.5">
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8">
+        <v>111</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8">
+        <v>111</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="19.5">
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="19.5">
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="19.5">
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1010</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="19.5">
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1011</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1011</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="19.5">
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="19.5">
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="19.5">
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1110</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1110</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="3:11" ht="19.5">
+      <c r="C20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1111</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1111</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B53A9C3-B65F-46A7-A8F4-0E5D6BBA4191}">
+  <dimension ref="C3:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="19.5">
+      <c r="C3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="3:11" ht="19.5">
+      <c r="C4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="19.5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="19.5">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="19.5">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="19.5">
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="19.5">
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="19.5">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>101</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
+        <v>101</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="19.5">
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8">
+        <v>110</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="19.5">
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8">
+        <v>111</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8">
+        <v>111</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="19.5">
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="19.5">
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="19.5">
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1010</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="19.5">
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1011</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1011</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="19.5">
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="19.5">
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="19.5">
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1110</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1110</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="19.5">
+      <c r="C20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1111</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1111</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787597C8-7B69-4366-BD30-01879BC16202}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="19" width="12.5" style="22" customWidth="1"/>
+    <col min="20" max="21" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:23">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="4:23">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D3" s="23"/>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D4" s="23"/>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D5" s="23"/>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="23"/>
+    </row>
+    <row r="6" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D6" s="23"/>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6" s="23"/>
+    </row>
+    <row r="7" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D7" s="23"/>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="8" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D8" s="23"/>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="W8" s="23"/>
+    </row>
+    <row r="9" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D9" s="23"/>
+      <c r="E9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="W9" s="23"/>
+    </row>
+    <row r="10" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D10" s="23"/>
+      <c r="E10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+    </row>
+    <row r="11" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D11" s="23"/>
+      <c r="E11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D12" s="23"/>
+      <c r="E12" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+    </row>
+    <row r="13" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D13" s="23"/>
+      <c r="E13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+    </row>
+    <row r="14" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D14" s="23"/>
+      <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D15" s="23"/>
+      <c r="E15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+    </row>
+    <row r="16" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D16" s="23"/>
+      <c r="E16" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U16" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D17" s="23"/>
+      <c r="E17" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="4:23" ht="37.5" customHeight="1">
+      <c r="D18" s="23"/>
+      <c r="E18" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="4:23" ht="19.5">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="4:23" ht="19.5">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+    </row>
+    <row r="21" spans="4:23">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="4:23">
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="4:23">
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="4:23">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Reference/All_Instructions.xlsx
+++ b/Reference/All_Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UETTL Github\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEA416-6FE4-46F6-A312-64837E677976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E6889-C9ED-44EC-B240-3378C9BFE8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB33CA9B-B098-4220-917D-59A95EDECDA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB33CA9B-B098-4220-917D-59A95EDECDA8}"/>
   </bookViews>
   <sheets>
     <sheet name="All Procs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="248">
   <si>
     <t>LD</t>
     <phoneticPr fontId="2"/>
@@ -1679,6 +1679,116 @@
   </si>
   <si>
     <t>Store PC into MA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOPF/JSR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOPO/PLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No change in registers. RR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> RR, JSR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎍</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No change in registers. RR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> RR, PLD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Spartan"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎍</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1965,18 +2075,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,6 +2095,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2317,8 +2427,8 @@
   </sheetPr>
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2332,30 +2442,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="19.5">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="2:11" ht="19.5">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="2:11" ht="19.5">
       <c r="B5" s="4" t="s">
@@ -2370,10 +2480,10 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2648,12 +2758,12 @@
       <c r="E16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="19.5">
@@ -2669,10 +2779,10 @@
       <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2701,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -2778,12 +2888,12 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" ht="19.5">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2799,10 +2909,10 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" ht="19.5">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2843,10 +2953,10 @@
         <v>110</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="19.5">
@@ -2869,10 +2979,10 @@
         <v>111</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5">
@@ -2895,10 +3005,10 @@
         <v>1000</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="19.5">
@@ -2921,10 +3031,10 @@
         <v>1001</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="19.5">
@@ -2946,11 +3056,11 @@
       <c r="H28" s="8">
         <v>1010</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>72</v>
+      <c r="I28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="19.5">
@@ -2973,10 +3083,10 @@
         <v>1011</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="19.5">
@@ -2999,10 +3109,10 @@
         <v>1100</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="19.5">
@@ -3024,11 +3134,11 @@
       <c r="H31" s="8">
         <v>1101</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>75</v>
+      <c r="I31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="19.5">
@@ -3050,11 +3160,11 @@
       <c r="H32" s="8">
         <v>1110</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>77</v>
+      <c r="I32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="19.5">
@@ -3077,10 +3187,10 @@
         <v>1111</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="19.5">
@@ -3200,34 +3310,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="19.5">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="3:11" ht="19.5">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="17" t="s">
         <v>85</v>
       </c>
@@ -3671,34 +3781,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="19.5">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="3:11" ht="19.5">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="21" t="s">
         <v>85</v>
       </c>
@@ -3988,7 +4098,7 @@
       <c r="J15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="31" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4103,7 +4213,7 @@
       <c r="D20" s="11">
         <v>1111</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="30" t="s">
         <v>186</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -4141,7 +4251,7 @@
   </sheetPr>
   <dimension ref="D1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17:U18"/>
     </sheetView>
   </sheetViews>
@@ -4164,52 +4274,52 @@
     <row r="2" spans="4:23">
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4646,7 +4756,7 @@
       <c r="T10" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U10" s="40" t="s">
+      <c r="U10" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V10" s="23"/>
@@ -4702,7 +4812,7 @@
       <c r="T11" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V11" s="23"/>
@@ -4758,7 +4868,7 @@
       <c r="T12" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V12" s="23"/>
@@ -4814,7 +4924,7 @@
       <c r="T13" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U13" s="40" t="s">
+      <c r="U13" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V13" s="23"/>
@@ -4870,7 +4980,7 @@
       <c r="T14" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U14" s="40" t="s">
+      <c r="U14" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V14" s="23"/>
@@ -4926,7 +5036,7 @@
       <c r="T15" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U15" s="40" t="s">
+      <c r="U15" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V15" s="23"/>
@@ -4982,7 +5092,7 @@
       <c r="T16" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U16" s="40" t="s">
+      <c r="U16" s="36" t="s">
         <v>207</v>
       </c>
       <c r="V16" s="23"/>
@@ -5046,7 +5156,7 @@
     </row>
     <row r="18" spans="4:23" ht="37.5" customHeight="1">
       <c r="D18" s="23"/>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="30" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="25"/>
